--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.065952666666667</v>
+        <v>2.18083</v>
       </c>
       <c r="H2">
-        <v>3.197858</v>
+        <v>6.54249</v>
       </c>
       <c r="I2">
-        <v>0.1537490938953947</v>
+        <v>0.2029465558466658</v>
       </c>
       <c r="J2">
-        <v>0.1537490938953947</v>
+        <v>0.2029465558466658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07707233333333334</v>
+        <v>1.079670666666667</v>
       </c>
       <c r="N2">
-        <v>0.231217</v>
+        <v>3.239012</v>
       </c>
       <c r="O2">
-        <v>0.05620349029126922</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="P2">
-        <v>0.05620349029126921</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="Q2">
-        <v>0.0821554592428889</v>
+        <v>2.354578179986667</v>
       </c>
       <c r="R2">
-        <v>0.739399133186</v>
+        <v>21.19120361988</v>
       </c>
       <c r="S2">
-        <v>0.008641235706041257</v>
+        <v>0.120455534598706</v>
       </c>
       <c r="T2">
-        <v>0.008641235706041256</v>
+        <v>0.120455534598706</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.065952666666667</v>
+        <v>2.18083</v>
       </c>
       <c r="H3">
-        <v>3.197858</v>
+        <v>6.54249</v>
       </c>
       <c r="I3">
-        <v>0.1537490938953947</v>
+        <v>0.2029465558466658</v>
       </c>
       <c r="J3">
-        <v>0.1537490938953947</v>
+        <v>0.2029465558466658</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.079670666666667</v>
+        <v>0.739386</v>
       </c>
       <c r="N3">
-        <v>3.239012</v>
+        <v>2.218158</v>
       </c>
       <c r="O3">
-        <v>0.7873286976965556</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="P3">
-        <v>0.7873286976965554</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="Q3">
-        <v>1.150877826255111</v>
+        <v>1.61247517038</v>
       </c>
       <c r="R3">
-        <v>10.357900436296</v>
+        <v>14.51227653342</v>
       </c>
       <c r="S3">
-        <v>0.1210510738686866</v>
+        <v>0.08249102124795975</v>
       </c>
       <c r="T3">
-        <v>0.1210510738686865</v>
+        <v>0.08249102124795975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.065952666666667</v>
+        <v>3.003971</v>
       </c>
       <c r="H4">
-        <v>3.197858</v>
+        <v>9.011913</v>
       </c>
       <c r="I4">
-        <v>0.1537490938953947</v>
+        <v>0.2795474971975186</v>
       </c>
       <c r="J4">
-        <v>0.1537490938953947</v>
+        <v>0.2795474971975186</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2145656666666667</v>
+        <v>1.079670666666667</v>
       </c>
       <c r="N4">
-        <v>0.6436970000000001</v>
+        <v>3.239012</v>
       </c>
       <c r="O4">
-        <v>0.1564678120121752</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="P4">
-        <v>0.1564678120121752</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="Q4">
-        <v>0.2287168445584445</v>
+        <v>3.243299372217333</v>
       </c>
       <c r="R4">
-        <v>2.058451601026</v>
+        <v>29.189694349956</v>
       </c>
       <c r="S4">
-        <v>0.0240567843206669</v>
+        <v>0.1659207424347655</v>
       </c>
       <c r="T4">
-        <v>0.0240567843206669</v>
+        <v>0.1659207424347655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>9.011913</v>
       </c>
       <c r="I5">
-        <v>0.4332817335898368</v>
+        <v>0.2795474971975186</v>
       </c>
       <c r="J5">
-        <v>0.4332817335898367</v>
+        <v>0.2795474971975186</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07707233333333334</v>
+        <v>0.739386</v>
       </c>
       <c r="N5">
-        <v>0.231217</v>
+        <v>2.218158</v>
       </c>
       <c r="O5">
-        <v>0.05620349029126922</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="P5">
-        <v>0.05620349029126921</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="Q5">
-        <v>0.2315230542356667</v>
+        <v>2.221094101806</v>
       </c>
       <c r="R5">
-        <v>2.083707488121</v>
+        <v>19.989846916254</v>
       </c>
       <c r="S5">
-        <v>0.02435194570720069</v>
+        <v>0.1136267547627531</v>
       </c>
       <c r="T5">
-        <v>0.02435194570720068</v>
+        <v>0.1136267547627531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.003971</v>
+        <v>3.585492333333333</v>
       </c>
       <c r="H6">
-        <v>9.011913</v>
+        <v>10.756477</v>
       </c>
       <c r="I6">
-        <v>0.4332817335898368</v>
+        <v>0.3336634767793112</v>
       </c>
       <c r="J6">
-        <v>0.4332817335898367</v>
+        <v>0.3336634767793112</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,27 +809,27 @@
         <v>3.239012</v>
       </c>
       <c r="O6">
-        <v>0.7873286976965556</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="P6">
-        <v>0.7873286976965554</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="Q6">
-        <v>3.243299372217333</v>
+        <v>3.871150897858222</v>
       </c>
       <c r="R6">
-        <v>29.189694349956</v>
+        <v>34.840358080724</v>
       </c>
       <c r="S6">
-        <v>0.3411351430429921</v>
+        <v>0.198040377200987</v>
       </c>
       <c r="T6">
-        <v>0.341135143042992</v>
+        <v>0.198040377200987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.003971</v>
+        <v>3.585492333333333</v>
       </c>
       <c r="H7">
-        <v>9.011913</v>
+        <v>10.756477</v>
       </c>
       <c r="I7">
-        <v>0.4332817335898368</v>
+        <v>0.3336634767793112</v>
       </c>
       <c r="J7">
-        <v>0.4332817335898367</v>
+        <v>0.3336634767793112</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2145656666666667</v>
+        <v>0.739386</v>
       </c>
       <c r="N7">
-        <v>0.6436970000000001</v>
+        <v>2.218158</v>
       </c>
       <c r="O7">
-        <v>0.1564678120121752</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="P7">
-        <v>0.1564678120121752</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="Q7">
-        <v>0.6445490402623334</v>
+        <v>2.651062834374</v>
       </c>
       <c r="R7">
-        <v>5.800941362361001</v>
+        <v>23.859565509366</v>
       </c>
       <c r="S7">
-        <v>0.06779464483964398</v>
+        <v>0.1356230995783242</v>
       </c>
       <c r="T7">
-        <v>0.06779464483964397</v>
+        <v>0.1356230995783242</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.558426333333333</v>
+        <v>1.975540666666667</v>
       </c>
       <c r="H8">
-        <v>4.675279</v>
+        <v>5.926622</v>
       </c>
       <c r="I8">
-        <v>0.2247816851023926</v>
+        <v>0.1838424701765043</v>
       </c>
       <c r="J8">
-        <v>0.2247816851023926</v>
+        <v>0.1838424701765044</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07707233333333334</v>
+        <v>1.079670666666667</v>
       </c>
       <c r="N8">
-        <v>0.231217</v>
+        <v>3.239012</v>
       </c>
       <c r="O8">
-        <v>0.05620349029126922</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="P8">
-        <v>0.05620349029126921</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="Q8">
-        <v>0.1201115538381111</v>
+        <v>2.132933308607111</v>
       </c>
       <c r="R8">
-        <v>1.081003984543</v>
+        <v>19.196399777464</v>
       </c>
       <c r="S8">
-        <v>0.01263351525630746</v>
+        <v>0.1091166240031628</v>
       </c>
       <c r="T8">
-        <v>0.01263351525630746</v>
+        <v>0.1091166240031628</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,294 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.558426333333333</v>
+        <v>1.975540666666667</v>
       </c>
       <c r="H9">
-        <v>4.675279</v>
+        <v>5.926622</v>
       </c>
       <c r="I9">
-        <v>0.2247816851023926</v>
+        <v>0.1838424701765043</v>
       </c>
       <c r="J9">
-        <v>0.2247816851023926</v>
+        <v>0.1838424701765044</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.079670666666667</v>
+        <v>0.739386</v>
       </c>
       <c r="N9">
-        <v>3.239012</v>
+        <v>2.218158</v>
       </c>
       <c r="O9">
-        <v>0.7873286976965556</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="P9">
-        <v>0.7873286976965554</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="Q9">
-        <v>1.682587198260889</v>
+        <v>1.460687111364</v>
       </c>
       <c r="R9">
-        <v>15.143284784348</v>
+        <v>13.146184002276</v>
       </c>
       <c r="S9">
-        <v>0.176977071397704</v>
+        <v>0.07472584617334159</v>
       </c>
       <c r="T9">
-        <v>0.176977071397704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.558426333333333</v>
-      </c>
-      <c r="H10">
-        <v>4.675279</v>
-      </c>
-      <c r="I10">
-        <v>0.2247816851023926</v>
-      </c>
-      <c r="J10">
-        <v>0.2247816851023926</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.2145656666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.6436970000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.1564678120121752</v>
-      </c>
-      <c r="P10">
-        <v>0.1564678120121752</v>
-      </c>
-      <c r="Q10">
-        <v>0.3343847851625555</v>
-      </c>
-      <c r="R10">
-        <v>3.009463066463</v>
-      </c>
-      <c r="S10">
-        <v>0.03517109844838114</v>
-      </c>
-      <c r="T10">
-        <v>0.03517109844838114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.304716333333333</v>
-      </c>
-      <c r="H11">
-        <v>3.914149</v>
-      </c>
-      <c r="I11">
-        <v>0.1881874874123758</v>
-      </c>
-      <c r="J11">
-        <v>0.1881874874123758</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.07707233333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.231217</v>
-      </c>
-      <c r="O11">
-        <v>0.05620349029126922</v>
-      </c>
-      <c r="P11">
-        <v>0.05620349029126921</v>
-      </c>
-      <c r="Q11">
-        <v>0.1005575321481111</v>
-      </c>
-      <c r="R11">
-        <v>0.905017789333</v>
-      </c>
-      <c r="S11">
-        <v>0.01057679362171981</v>
-      </c>
-      <c r="T11">
-        <v>0.01057679362171981</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.304716333333333</v>
-      </c>
-      <c r="H12">
-        <v>3.914149</v>
-      </c>
-      <c r="I12">
-        <v>0.1881874874123758</v>
-      </c>
-      <c r="J12">
-        <v>0.1881874874123758</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>1.079670666666667</v>
-      </c>
-      <c r="N12">
-        <v>3.239012</v>
-      </c>
-      <c r="O12">
-        <v>0.7873286976965556</v>
-      </c>
-      <c r="P12">
-        <v>0.7873286976965554</v>
-      </c>
-      <c r="Q12">
-        <v>1.408663953420889</v>
-      </c>
-      <c r="R12">
-        <v>12.677975580788</v>
-      </c>
-      <c r="S12">
-        <v>0.1481654093871728</v>
-      </c>
-      <c r="T12">
-        <v>0.1481654093871728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.304716333333333</v>
-      </c>
-      <c r="H13">
-        <v>3.914149</v>
-      </c>
-      <c r="I13">
-        <v>0.1881874874123758</v>
-      </c>
-      <c r="J13">
-        <v>0.1881874874123758</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2145656666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.6436970000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.1564678120121752</v>
-      </c>
-      <c r="P13">
-        <v>0.1564678120121752</v>
-      </c>
-      <c r="Q13">
-        <v>0.2799473298725556</v>
-      </c>
-      <c r="R13">
-        <v>2.519525968853</v>
-      </c>
-      <c r="S13">
-        <v>0.02944528440348322</v>
-      </c>
-      <c r="T13">
-        <v>0.02944528440348321</v>
+        <v>0.0747258461733416</v>
       </c>
     </row>
   </sheetData>
